--- a/Dataset/DOT_hemo1.xlsx
+++ b/Dataset/DOT_hemo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingh\Box\DOT\chemo_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565AE2A2-9EE6-48AF-A0DB-E7CAAF8A27C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805284D5-1330-4C95-8A71-A553255FA9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16845" yWindow="480" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17565" yWindow="990" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFDEE97-305A-45CD-A167-9798C730B9E2}">
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="J302" sqref="J302"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311:E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,96 +592,96 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>67.739229540830678</v>
+        <v>93.422325043864817</v>
       </c>
       <c r="B2">
-        <v>68.02849173684254</v>
+        <v>89.75599155294401</v>
       </c>
       <c r="C2">
-        <v>64.067958997529033</v>
+        <v>77.06761800207245</v>
       </c>
       <c r="D2">
-        <v>66.190995135208354</v>
+        <v>92.89159298520751</v>
       </c>
       <c r="E2">
-        <v>66.795166547845369</v>
+        <v>88.449563637334634</v>
       </c>
       <c r="F2">
-        <v>68.360439387359392</v>
+        <v>92.133922026468852</v>
       </c>
       <c r="G2">
-        <v>67.647926865720294</v>
+        <v>94.060429651605887</v>
       </c>
       <c r="H2">
-        <v>65.975229974918861</v>
+        <v>99.319244882157207</v>
       </c>
       <c r="I2">
-        <v>66.910529202294597</v>
+        <v>100.79116490368604</v>
       </c>
       <c r="J2">
-        <v>67.652625685061224</v>
+        <v>98.538979573807396</v>
       </c>
       <c r="K2">
-        <v>67.958226448503325</v>
+        <v>96.343327645167562</v>
       </c>
       <c r="L2">
-        <v>68.54847856313323</v>
+        <v>96.352824085283203</v>
       </c>
       <c r="M2">
-        <v>70.659825663785838</v>
+        <v>93.763700113525388</v>
       </c>
       <c r="N2">
-        <v>70.460102611276838</v>
+        <v>96.288294729206811</v>
       </c>
       <c r="O2">
-        <v>69.09321675215061</v>
+        <v>92.155896825640369</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>94.442286980716162</v>
+        <v>84.410955116312536</v>
       </c>
       <c r="B3">
-        <v>90.133665457376978</v>
+        <v>84.980044169608561</v>
       </c>
       <c r="C3">
-        <v>90.727723059602411</v>
+        <v>84.892962167637847</v>
       </c>
       <c r="D3">
-        <v>91.223078054382057</v>
+        <v>84.119296063060801</v>
       </c>
       <c r="E3">
-        <v>89.139511108194213</v>
+        <v>81.950685961203931</v>
       </c>
       <c r="F3">
-        <v>83.39798749297448</v>
+        <v>80.636148785626929</v>
       </c>
       <c r="G3">
-        <v>100.35565680146159</v>
+        <v>86.129849659662227</v>
       </c>
       <c r="H3">
-        <v>104.01235236507706</v>
+        <v>86.575842454432092</v>
       </c>
       <c r="I3">
-        <v>98.871658573933047</v>
+        <v>86.869070257475357</v>
       </c>
       <c r="J3">
-        <v>98.698877605655653</v>
+        <v>86.467839812850585</v>
       </c>
       <c r="K3">
-        <v>97.547932351484604</v>
+        <v>85.210990466618227</v>
       </c>
       <c r="L3">
-        <v>94.605530769552445</v>
+        <v>82.782085057671594</v>
       </c>
       <c r="M3">
-        <v>94.149386889800951</v>
+        <v>83.321613885378952</v>
       </c>
       <c r="N3">
-        <v>93.91556152111859</v>
+        <v>83.307252191624116</v>
       </c>
       <c r="O3">
-        <v>95.413095679412024</v>
+        <v>84.509690695524512</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1554,31 +1554,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>24.996798811594978</v>
+        <v>94.48097819510545</v>
       </c>
       <c r="B37">
-        <v>44.633343318970205</v>
-      </c>
-      <c r="C37">
-        <v>22.6093654058844</v>
-      </c>
-      <c r="D37">
-        <v>19.328110241808208</v>
-      </c>
-      <c r="E37">
-        <v>21.7979031943539</v>
-      </c>
-      <c r="F37">
-        <v>20.852556700546927</v>
-      </c>
-      <c r="G37">
-        <v>23.50379045667173</v>
-      </c>
-      <c r="H37">
-        <v>22.53368074007442</v>
-      </c>
-      <c r="I37">
-        <v>24.71564043445003</v>
+        <v>94.48097819510545</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2527,31 +2506,31 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>64.192000501004912</v>
+        <v>78.762445800138238</v>
       </c>
       <c r="B72">
-        <v>60.989257778230098</v>
+        <v>73.216551677283277</v>
       </c>
       <c r="C72">
-        <v>65.52158523166743</v>
+        <v>82.823721938382533</v>
       </c>
       <c r="D72">
-        <v>65.573644462231599</v>
+        <v>78.376648595400525</v>
       </c>
       <c r="E72">
-        <v>65.321236678734024</v>
+        <v>79.482256486819409</v>
       </c>
       <c r="F72">
-        <v>65.275921844118997</v>
+        <v>79.015170564324691</v>
       </c>
       <c r="G72">
-        <v>64.65477930656742</v>
+        <v>81.908619796671488</v>
       </c>
       <c r="H72">
-        <v>63.625533475723692</v>
+        <v>78.633430139666046</v>
       </c>
       <c r="I72">
-        <v>62.574045230766082</v>
+        <v>76.643167202557933</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -3179,25 +3158,25 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>147.92676231044996</v>
+        <v>102.1879871806351</v>
       </c>
       <c r="B99">
-        <v>144.28141114429434</v>
+        <v>99.273252401867197</v>
       </c>
       <c r="C99">
-        <v>139.26029957218876</v>
+        <v>102.94670584891755</v>
       </c>
       <c r="D99">
-        <v>144.77986603967997</v>
+        <v>100.81354095372939</v>
       </c>
       <c r="E99">
-        <v>167.27835609409638</v>
+        <v>107.74235068693692</v>
       </c>
       <c r="F99">
-        <v>145.00105621423342</v>
+        <v>107.33293116046683</v>
       </c>
       <c r="G99">
-        <v>146.95958479820695</v>
+        <v>95.01914203189277</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -4267,37 +4246,37 @@
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>106.90869565855512</v>
+        <v>79.607376614078248</v>
       </c>
       <c r="B145">
-        <v>89.753339313680002</v>
+        <v>78.452992997065834</v>
       </c>
       <c r="C145">
-        <v>90.139907374038785</v>
+        <v>79.370936261222212</v>
       </c>
       <c r="D145">
-        <v>101.57810672202349</v>
+        <v>82.314730720007688</v>
       </c>
       <c r="E145">
-        <v>110.09950102744121</v>
+        <v>78.872305113372377</v>
       </c>
       <c r="F145">
-        <v>106.96986746241654</v>
+        <v>78.657189768593369</v>
       </c>
       <c r="G145">
-        <v>108.97998099681392</v>
+        <v>79.094799427178941</v>
       </c>
       <c r="H145">
-        <v>113.23640852400246</v>
+        <v>80.032482406943998</v>
       </c>
       <c r="I145">
-        <v>115.24906837525248</v>
+        <v>79.747366398041635</v>
       </c>
       <c r="J145">
-        <v>115.55380059432258</v>
+        <v>79.301625763411181</v>
       </c>
       <c r="K145">
-        <v>117.52697619555997</v>
+        <v>80.229337284945302</v>
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
@@ -5347,46 +5326,19 @@
     </row>
     <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>20.533317985467104</v>
+        <v>52.033332622334058</v>
       </c>
       <c r="B179">
-        <v>15.689278352865276</v>
+        <v>55.60332467579412</v>
       </c>
       <c r="C179">
-        <v>14.646539542471695</v>
+        <v>55.214124902571385</v>
       </c>
       <c r="D179">
-        <v>11.858683005155802</v>
+        <v>48.556026108449281</v>
       </c>
       <c r="E179">
-        <v>14.597079417891059</v>
-      </c>
-      <c r="F179">
-        <v>12.89815258448837</v>
-      </c>
-      <c r="G179">
-        <v>13.978880964651575</v>
-      </c>
-      <c r="H179">
-        <v>16.914241278556521</v>
-      </c>
-      <c r="I179">
-        <v>15.275180972044499</v>
-      </c>
-      <c r="J179">
-        <v>28.09605160580027</v>
-      </c>
-      <c r="K179">
-        <v>20.045323525350749</v>
-      </c>
-      <c r="L179">
-        <v>28.228258420019792</v>
-      </c>
-      <c r="M179">
-        <v>34.372799640398476</v>
-      </c>
-      <c r="N179">
-        <v>40.332664501378332</v>
+        <v>48.759854802521424</v>
       </c>
     </row>
     <row r="180" spans="1:24" x14ac:dyDescent="0.25">
@@ -9063,21 +9015,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F44A64374FD3D14CB564863B3B8E6093" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694d0147b22a524c25d3e435aa7240dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="da119f74-4cb9-42fc-a8eb-fc471a42e731" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77310024378a84fe98cc6cea8372974f" ns3:_="">
     <xsd:import namespace="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
@@ -9259,31 +9196,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F5BA874-E0DC-48CB-AB02-950BA1AAC79E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9299,4 +9227,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dataset/DOT_hemo1.xlsx
+++ b/Dataset/DOT_hemo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingh\Box\DOT\chemo_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805284D5-1330-4C95-8A71-A553255FA9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D225A8-35B3-4E3A-B0E2-E20D74183CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17565" yWindow="990" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5745" yWindow="1395" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFDEE97-305A-45CD-A167-9798C730B9E2}">
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311:E311"/>
+    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="J311" sqref="J311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6450,57 +6450,57 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>98.376280664728753</v>
+        <v>73.346123777960287</v>
       </c>
       <c r="B219">
-        <v>97.07936837060852</v>
+        <v>74.363413371233506</v>
       </c>
       <c r="C219">
-        <v>92.996165287762835</v>
+        <v>75.289504581823834</v>
       </c>
       <c r="D219">
-        <v>95.12966958992844</v>
+        <v>77.259926686615415</v>
       </c>
       <c r="E219">
-        <v>91.663039206163489</v>
+        <v>70.621809251217144</v>
       </c>
       <c r="F219">
-        <v>96.658217627165996</v>
+        <v>72.323841933131789</v>
       </c>
       <c r="G219">
-        <v>96.691922743417862</v>
+        <v>72.222178780253813</v>
       </c>
       <c r="H219">
-        <v>120.9992353459475</v>
+        <v>74.826251910342393</v>
       </c>
       <c r="I219">
-        <v>95.792627146835443</v>
+        <v>69.862063709064358</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>77.822895972441657</v>
+        <v>64.518932116553188</v>
       </c>
       <c r="B220">
-        <v>84.123285997407237</v>
+        <v>63.772320572370134</v>
       </c>
       <c r="C220">
-        <v>76.191861203128951</v>
+        <v>66.894736154351406</v>
       </c>
       <c r="D220">
-        <v>80.321434058782415</v>
+        <v>66.242464112346482</v>
       </c>
       <c r="E220">
-        <v>79.321587580692551</v>
+        <v>65.488999251796884</v>
       </c>
       <c r="F220">
-        <v>72.136332687884703</v>
+        <v>63.063056524296115</v>
       </c>
       <c r="G220">
-        <v>76.210260925984286</v>
+        <v>65.132812880008586</v>
       </c>
       <c r="H220">
-        <v>76.455509353211426</v>
+        <v>61.03813532070275</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -6952,60 +6952,51 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>84.779058344417336</v>
+        <v>32.149621710802229</v>
       </c>
       <c r="B239">
-        <v>87.207581359285555</v>
+        <v>35.824156556848465</v>
       </c>
       <c r="C239">
-        <v>90.443314936861341</v>
+        <v>32.996495995405176</v>
       </c>
       <c r="D239">
-        <v>88.720160982408316</v>
+        <v>31.251698583551619</v>
       </c>
       <c r="E239">
-        <v>86.440737563543422</v>
+        <v>29.409320099410444</v>
       </c>
       <c r="F239">
-        <v>82.092466909421432</v>
+        <v>29.918758303744823</v>
       </c>
       <c r="G239">
-        <v>79.777557987685071</v>
+        <v>30.487145593988263</v>
       </c>
       <c r="H239">
-        <v>82.397878533044675</v>
-      </c>
-      <c r="I239">
-        <v>81.090451829221095</v>
-      </c>
-      <c r="J239">
-        <v>85.218760615772737</v>
-      </c>
-      <c r="K239">
-        <v>84.401672726929675</v>
+        <v>35.159776842666773</v>
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>75.906913088941323</v>
+        <v>42.237494017143703</v>
       </c>
       <c r="B240">
-        <v>75.653597259604567</v>
+        <v>42.054244174186366</v>
       </c>
       <c r="C240">
-        <v>73.698748250780184</v>
+        <v>42.899524380015457</v>
       </c>
       <c r="D240">
-        <v>73.392374730898567</v>
+        <v>42.054244174186366</v>
       </c>
       <c r="E240">
-        <v>75.6510086352081</v>
+        <v>42.429971312367719</v>
       </c>
       <c r="F240">
-        <v>78.560768864372747</v>
+        <v>41.693666799186474</v>
       </c>
       <c r="G240">
-        <v>78.484980792783787</v>
+        <v>42.293313262919845</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">

--- a/Dataset/DOT_hemo1.xlsx
+++ b/Dataset/DOT_hemo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingh\Box\DOT\chemo_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D225A8-35B3-4E3A-B0E2-E20D74183CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C6781-DD17-4657-9A71-5D02C4ED4EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5745" yWindow="1395" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFDEE97-305A-45CD-A167-9798C730B9E2}">
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="J311" sqref="J311"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="L311" sqref="A311:L311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7105,28 +7105,28 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>39.893088138507487</v>
+        <v>53.2554492394476</v>
       </c>
       <c r="B245">
-        <v>42.114931672019161</v>
+        <v>57.790898955231455</v>
       </c>
       <c r="C245">
-        <v>41.185037663951086</v>
+        <v>54.424662582377266</v>
       </c>
       <c r="D245">
-        <v>39.528931048616506</v>
+        <v>52.137316984664217</v>
       </c>
       <c r="E245">
-        <v>40.128112643898227</v>
+        <v>52.100393895642689</v>
       </c>
       <c r="F245">
-        <v>39.532796712211272</v>
+        <v>52.959915434312776</v>
       </c>
       <c r="G245">
-        <v>38.562176300839688</v>
+        <v>51.311642958430795</v>
       </c>
       <c r="H245">
-        <v>38.199630928016454</v>
+        <v>52.063313865473958</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -7254,40 +7254,40 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>53.713550234877353</v>
+        <v>87.099867223130019</v>
       </c>
       <c r="B252">
-        <v>64.404767780185665</v>
+        <v>62.890258862509441</v>
       </c>
       <c r="C252">
-        <v>62.139039636827569</v>
+        <v>77.863470204742129</v>
       </c>
       <c r="D252">
-        <v>69.998836776793894</v>
+        <v>106.74066178375973</v>
       </c>
       <c r="E252">
-        <v>48.908334279181496</v>
+        <v>100.8089635608366</v>
       </c>
       <c r="F252">
-        <v>50.789395836094585</v>
+        <v>79.715189625308469</v>
       </c>
       <c r="G252">
-        <v>52.276151563770163</v>
+        <v>97.636508772910602</v>
       </c>
       <c r="H252">
-        <v>50.706078068786908</v>
+        <v>85.626340825996323</v>
       </c>
       <c r="I252">
-        <v>49.164290081844378</v>
+        <v>83.159530286510133</v>
       </c>
       <c r="J252">
-        <v>45.769685504769775</v>
+        <v>86.462866085323157</v>
       </c>
       <c r="K252">
-        <v>49.184171893419482</v>
+        <v>90.436461524353476</v>
       </c>
       <c r="L252">
-        <v>47.508301161977002</v>
+        <v>86.758287922180102</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -7324,63 +7324,63 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>38.717900324395167</v>
+        <v>81.948981401316033</v>
       </c>
       <c r="B254">
-        <v>43.458055871947238</v>
+        <v>96.480843291997601</v>
       </c>
       <c r="C254">
-        <v>37.957867694119102</v>
+        <v>84.036193719711264</v>
       </c>
       <c r="D254">
-        <v>38.072741700387198</v>
+        <v>81.090547911182398</v>
       </c>
       <c r="E254">
-        <v>37.95787285118837</v>
+        <v>83.177322775156668</v>
       </c>
       <c r="F254">
-        <v>38.472695827337517</v>
+        <v>79.514681847556545</v>
       </c>
       <c r="G254">
-        <v>37.958142587223129</v>
+        <v>79.43837964922804</v>
       </c>
       <c r="H254">
-        <v>38.380703190301787</v>
+        <v>81.097465906495472</v>
       </c>
       <c r="I254">
-        <v>38.245153205124574</v>
+        <v>76.811908256120077</v>
       </c>
       <c r="J254">
-        <v>37.957869991927581</v>
+        <v>75.893489254396201</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>45.668569204743385</v>
+        <v>73.963082741365966</v>
       </c>
       <c r="B255">
-        <v>46.706662625473811</v>
+        <v>71.225317817372556</v>
       </c>
       <c r="C255">
-        <v>39.676950013502719</v>
+        <v>65.936008439805349</v>
       </c>
       <c r="D255">
-        <v>38.986046404484483</v>
+        <v>75.094832918877046</v>
       </c>
       <c r="E255">
-        <v>45.117309664616243</v>
+        <v>67.031595335156155</v>
       </c>
       <c r="F255">
-        <v>52.218293791210932</v>
+        <v>79.854356799258539</v>
       </c>
       <c r="G255">
-        <v>46.593186556050433</v>
+        <v>74.157741371045304</v>
       </c>
       <c r="H255">
-        <v>48.328962029306005</v>
+        <v>78.711415941499496</v>
       </c>
       <c r="I255">
-        <v>47.721142553302457</v>
+        <v>79.693393307913311</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -7555,51 +7555,51 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>91.774579046652164</v>
+        <v>70.09505219262573</v>
       </c>
       <c r="B264">
-        <v>98.676433761387315</v>
+        <v>68.087867285618088</v>
       </c>
       <c r="C264">
-        <v>95.859407775411597</v>
+        <v>72.655971188619858</v>
       </c>
       <c r="D264">
-        <v>94.637282653637158</v>
+        <v>72.120456322100367</v>
       </c>
       <c r="E264">
-        <v>84.432647631132653</v>
+        <v>68.983106566335863</v>
       </c>
       <c r="F264">
-        <v>80.777074973662224</v>
+        <v>67.034516398374294</v>
       </c>
       <c r="G264">
-        <v>94.155589911556405</v>
+        <v>70.515676539045415</v>
       </c>
       <c r="H264">
-        <v>93.883616619777783</v>
+        <v>71.267771048286193</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>91.675977667071706</v>
+        <v>73.038671014502384</v>
       </c>
       <c r="B265">
-        <v>91.688212368559064</v>
+        <v>65.005465867405633</v>
       </c>
       <c r="C265">
-        <v>103.91605179406582</v>
+        <v>76.518048155311419</v>
       </c>
       <c r="D265">
-        <v>88.707589554309791</v>
+        <v>72.866300904738324</v>
       </c>
       <c r="E265">
-        <v>100.94187609471706</v>
+        <v>75.272073954803503</v>
       </c>
       <c r="F265">
-        <v>79.35622607110821</v>
+        <v>78.55035414614963</v>
       </c>
       <c r="G265">
-        <v>85.445910119670302</v>
+        <v>70.01978305860581</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -7609,40 +7609,40 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>46.386160287581191</v>
+        <v>65.363899419762035</v>
       </c>
       <c r="B267">
-        <v>44.600075515979192</v>
+        <v>68.624710317036175</v>
       </c>
       <c r="C267">
-        <v>44.38308959502011</v>
+        <v>62.570020093304841</v>
       </c>
       <c r="D267">
-        <v>53.723711083100923</v>
+        <v>57.267063004579526</v>
       </c>
       <c r="E267">
-        <v>47.52977813389225</v>
+        <v>60.444445658676074</v>
       </c>
       <c r="F267">
-        <v>48.807246189716714</v>
+        <v>64.288067100212487</v>
       </c>
       <c r="G267">
-        <v>51.497708891690152</v>
+        <v>63.0649597187249</v>
       </c>
       <c r="H267">
-        <v>46.786036826084164</v>
+        <v>66.051415717484886</v>
       </c>
       <c r="I267">
-        <v>43.770113647331009</v>
+        <v>69.690663581717914</v>
       </c>
       <c r="J267">
-        <v>43.265055021874993</v>
+        <v>68.891778005585792</v>
       </c>
       <c r="K267">
-        <v>42.863308151166777</v>
+        <v>68.069334530960845</v>
       </c>
       <c r="L267">
-        <v>43.02164010753674</v>
+        <v>70.040435889098902</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -9006,6 +9006,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F44A64374FD3D14CB564863B3B8E6093" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694d0147b22a524c25d3e435aa7240dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="da119f74-4cb9-42fc-a8eb-fc471a42e731" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77310024378a84fe98cc6cea8372974f" ns3:_="">
     <xsd:import namespace="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
@@ -9187,22 +9202,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F5BA874-E0DC-48CB-AB02-950BA1AAC79E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9218,28 +9242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dataset/DOT_hemo1.xlsx
+++ b/Dataset/DOT_hemo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingh\Box\DOT\chemo_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321C6781-DD17-4657-9A71-5D02C4ED4EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34193C23-973A-4E5B-B833-EB1BCB7D1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5745" yWindow="1395" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFDEE97-305A-45CD-A167-9798C730B9E2}">
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="L311" sqref="A311:L311"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="A311" sqref="A311:K312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8173,37 +8173,37 @@
     </row>
     <row r="285" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>84.579073766755513</v>
+        <v>74.649469502897816</v>
       </c>
       <c r="B285">
-        <v>83.462559174665557</v>
+        <v>73.283159935934265</v>
       </c>
       <c r="C285">
-        <v>87.212108948586717</v>
+        <v>76.656253159609307</v>
       </c>
       <c r="D285">
-        <v>85.126750018828332</v>
+        <v>74.119805692764544</v>
       </c>
       <c r="E285">
-        <v>85.242557180493577</v>
+        <v>76.504723463877667</v>
       </c>
       <c r="F285">
-        <v>84.306377264842993</v>
+        <v>74.923422395538623</v>
       </c>
       <c r="G285">
-        <v>83.65891521587632</v>
+        <v>73.987763750168384</v>
       </c>
       <c r="H285">
-        <v>84.454645840312011</v>
+        <v>74.703607305640119</v>
       </c>
       <c r="I285">
-        <v>83.882845578605227</v>
+        <v>72.86735172999154</v>
       </c>
       <c r="J285">
-        <v>82.570463853144517</v>
+        <v>73.521859294863546</v>
       </c>
       <c r="K285">
-        <v>85.873514592199996</v>
+        <v>75.926748300590162</v>
       </c>
     </row>
     <row r="286" spans="1:18" x14ac:dyDescent="0.25">
@@ -8894,37 +8894,37 @@
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>28.534703610068664</v>
+        <v>34.485961431116536</v>
       </c>
       <c r="B308">
-        <v>27.961731914928517</v>
+        <v>34.488706064284436</v>
       </c>
       <c r="C308">
-        <v>33.763768267523155</v>
+        <v>34.62839429643553</v>
       </c>
       <c r="D308">
-        <v>30.457265774293088</v>
+        <v>34.956028287526486</v>
       </c>
       <c r="E308">
-        <v>29.716436855149194</v>
+        <v>34.372650296235257</v>
       </c>
       <c r="F308">
-        <v>25.153514890116593</v>
+        <v>32.669894365879145</v>
       </c>
       <c r="G308">
-        <v>23.14604637736463</v>
+        <v>32.333322504455751</v>
       </c>
       <c r="H308">
-        <v>23.408324486254337</v>
+        <v>33.384856509325161</v>
       </c>
       <c r="I308">
-        <v>29.51636285446893</v>
+        <v>33.40996153258218</v>
       </c>
       <c r="J308">
-        <v>33.513477683617843</v>
+        <v>34.981576612632516</v>
       </c>
       <c r="K308">
-        <v>28.710106996970357</v>
+        <v>39.634223841808854</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
@@ -9006,21 +9006,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F44A64374FD3D14CB564863B3B8E6093" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694d0147b22a524c25d3e435aa7240dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="da119f74-4cb9-42fc-a8eb-fc471a42e731" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77310024378a84fe98cc6cea8372974f" ns3:_="">
     <xsd:import namespace="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
@@ -9202,31 +9187,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F5BA874-E0DC-48CB-AB02-950BA1AAC79E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9242,4 +9218,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Dataset/DOT_hemo1.xlsx
+++ b/Dataset/DOT_hemo1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingh\Box\DOT\chemo_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34193C23-973A-4E5B-B833-EB1BCB7D1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B566EF-A45D-42F5-9D18-36A02434E613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="1395" windowWidth="20400" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17505" yWindow="2085" windowWidth="20400" windowHeight="14715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFDEE97-305A-45CD-A167-9798C730B9E2}">
   <dimension ref="A1:X310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A311" sqref="A311:K312"/>
+    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+      <selection activeCell="K302" sqref="K302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,49 +4104,49 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>66.897341801775625</v>
+        <v>43.049996545030631</v>
       </c>
       <c r="B140">
-        <v>65.228317978963275</v>
+        <v>42.274818945079353</v>
       </c>
       <c r="C140">
-        <v>68.273918659827785</v>
+        <v>43.512126686619872</v>
       </c>
       <c r="D140">
-        <v>69.248298472225159</v>
+        <v>42.95119881085219</v>
       </c>
       <c r="E140">
-        <v>69.562559636355218</v>
+        <v>43.316129339087546</v>
       </c>
       <c r="F140">
-        <v>66.15986885388611</v>
+        <v>42.900297489103302</v>
       </c>
       <c r="G140">
-        <v>66.645132136313563</v>
+        <v>43.037513843612011</v>
       </c>
       <c r="H140">
-        <v>65.398353778883006</v>
+        <v>43.502896515405084</v>
       </c>
       <c r="I140">
-        <v>66.264062085913451</v>
+        <v>43.270955190920581</v>
       </c>
       <c r="J140">
-        <v>65.960925751199113</v>
+        <v>42.897704889596731</v>
       </c>
       <c r="K140">
-        <v>66.524692435766212</v>
+        <v>42.670643567944992</v>
       </c>
       <c r="L140">
-        <v>67.530137246339038</v>
+        <v>43.014762473602403</v>
       </c>
       <c r="M140">
-        <v>67.410404420501138</v>
+        <v>43.087795445641007</v>
       </c>
       <c r="N140">
-        <v>66.573648876355776</v>
+        <v>43.202672454674797</v>
       </c>
       <c r="O140">
-        <v>65.782464892330111</v>
+        <v>43.060435978288908</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -9006,6 +9006,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F44A64374FD3D14CB564863B3B8E6093" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694d0147b22a524c25d3e435aa7240dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="da119f74-4cb9-42fc-a8eb-fc471a42e731" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="77310024378a84fe98cc6cea8372974f" ns3:_="">
     <xsd:import namespace="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
@@ -9187,22 +9202,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F5BA874-E0DC-48CB-AB02-950BA1AAC79E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9218,28 +9242,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFBFDD7C-7266-4202-BA80-31F89B71E939}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2431487B-7AA1-4387-9AC3-40F40733A036}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="da119f74-4cb9-42fc-a8eb-fc471a42e731"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>